--- a/analyst/Tracy/rmonize/data_proc_elem/DPE_SHIP_TRACY.xlsx
+++ b/analyst/Tracy/rmonize/data_proc_elem/DPE_SHIP_TRACY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\use-cases-harmonisation\analyst\Tracy\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F7E9DE-BFA1-4EB9-9130-A7015F8980E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C68C127-BF6A-4AB8-82B6-137550DD3BC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="199">
   <si>
     <t>index</t>
   </si>
@@ -470,9 +470,6 @@
     <t>ncig1</t>
   </si>
   <si>
-    <t>quityear</t>
-  </si>
-  <si>
     <t>compatible</t>
   </si>
   <si>
@@ -518,13 +515,7 @@
     <t>Fatal cases could be included using mort_time_birth</t>
   </si>
   <si>
-    <t>herz_01 (START-4)</t>
-  </si>
-  <si>
     <t>inc_diab_s0</t>
-  </si>
-  <si>
-    <t>krebs_01 (START-4)</t>
   </si>
   <si>
     <t>mort_all</t>
@@ -623,9 +614,6 @@
     <t>mi_03b5(START-4)</t>
   </si>
   <si>
-    <t>ang_01(START-4)</t>
-  </si>
-  <si>
     <t>vat;sib</t>
   </si>
   <si>
@@ -635,13 +623,16 @@
     <t>ang_01b(START-4)</t>
   </si>
   <si>
-    <t>inc_mi_s0(START-0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mi_03b5(START-4)  </t>
-  </si>
-  <si>
-    <t>inc_stroke_s0(START-0)</t>
+    <t>inc_mi_s0</t>
+  </si>
+  <si>
+    <t>inc_stroke_s0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">herz_01 </t>
+  </si>
+  <si>
+    <t>krebs_01</t>
   </si>
 </sst>
 </file>
@@ -1972,8 +1963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:XFD58"/>
+    <sheetView tabSelected="1" topLeftCell="C39" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2122,16 +2113,16 @@
         <v>141</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>136</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2171,16 +2162,16 @@
         <v>144</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>136</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2197,17 +2188,17 @@
         <v>145</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
         <v>136</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2221,10 +2212,10 @@
         <v>13</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H9" s="14">
         <v>1</v>
@@ -2236,7 +2227,7 @@
         <v>136</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2327,20 +2318,17 @@
       <c r="D13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2379,7 +2367,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>139</v>
@@ -2405,19 +2393,19 @@
         <v>13</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>136</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -2431,7 +2419,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>139</v>
@@ -2458,7 +2446,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>139</v>
@@ -2467,7 +2455,7 @@
         <v>139</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>137</v>
@@ -2507,7 +2495,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>139</v>
@@ -2534,7 +2522,7 @@
         <v>13</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>139</v>
@@ -2561,22 +2549,22 @@
         <v>13</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>136</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -2590,7 +2578,7 @@
         <v>13</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>139</v>
@@ -2617,22 +2605,22 @@
         <v>13</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G24" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>136</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="120" x14ac:dyDescent="0.25">
@@ -2646,22 +2634,22 @@
         <v>13</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>136</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="135" x14ac:dyDescent="0.25">
@@ -2675,22 +2663,22 @@
         <v>13</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>136</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -2715,7 +2703,7 @@
         <v>142</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -2729,7 +2717,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>139</v>
@@ -2767,7 +2755,7 @@
         <v>142</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -2792,7 +2780,7 @@
         <v>142</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -2817,7 +2805,7 @@
         <v>142</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -2842,7 +2830,7 @@
         <v>142</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
@@ -2867,7 +2855,7 @@
         <v>142</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
@@ -2881,7 +2869,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>139</v>
@@ -2908,7 +2896,7 @@
         <v>13</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>139</v>
@@ -2935,22 +2923,22 @@
         <v>13</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J36" s="10" t="s">
         <v>136</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2964,7 +2952,7 @@
         <v>18</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>139</v>
@@ -2989,20 +2977,17 @@
       <c r="D38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>195</v>
-      </c>
       <c r="G38" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
@@ -3016,7 +3001,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>139</v>
@@ -3032,7 +3017,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>89</v>
       </c>
@@ -3043,7 +3028,7 @@
         <v>13</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>139</v>
@@ -3059,31 +3044,27 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="41" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>137</v>
+      <c r="G41" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -3097,7 +3078,7 @@
         <v>13</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>139</v>
@@ -3125,16 +3106,16 @@
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
@@ -3155,13 +3136,13 @@
         <v>142</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>142</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3181,13 +3162,13 @@
         <v>142</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>142</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
@@ -3208,13 +3189,13 @@
         <v>142</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>142</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
@@ -3235,13 +3216,13 @@
         <v>142</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>142</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
@@ -3262,13 +3243,13 @@
         <v>142</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>142</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
@@ -3289,13 +3270,13 @@
         <v>142</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>142</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
@@ -3309,7 +3290,7 @@
         <v>13</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>139</v>
@@ -3342,13 +3323,13 @@
         <v>142</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>142</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
@@ -3362,7 +3343,7 @@
         <v>13</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>139</v>
@@ -3389,16 +3370,16 @@
         <v>18</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
@@ -3412,7 +3393,7 @@
         <v>13</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>139</v>
@@ -3440,16 +3421,16 @@
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3464,16 +3445,16 @@
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3487,7 +3468,7 @@
         <v>13</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>139</v>
@@ -3513,7 +3494,7 @@
         <v>18</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>139</v>
@@ -3539,7 +3520,7 @@
         <v>13</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>139</v>
@@ -3566,7 +3547,7 @@
         <v>13</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>139</v>
@@ -3593,20 +3574,20 @@
         <v>18</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/analyst/Tracy/rmonize/data_proc_elem/DPE_SHIP_TRACY.xlsx
+++ b/analyst/Tracy/rmonize/data_proc_elem/DPE_SHIP_TRACY.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\use-cases-harmonisation\analyst\Tracy\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C68C127-BF6A-4AB8-82B6-137550DD3BC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E98AE6B-54E8-4227-AE5C-1366BFDA79E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -594,45 +593,45 @@
     <t>If any one has one of these diseases then code diseases 1,                                                                                                                                                                            if all of them dont have any of this diseases then classify to 2.                                                                                                                                                                                      if all of dont know or refuse but one is no then classify as no.                                                                                                                                                                       if all of them refuse or dont know then classify as non applicable</t>
   </si>
   <si>
+    <t xml:space="preserve">  # At least one "Yes" # Both "No" # All other cases (e.g., 998, 999)</t>
+  </si>
+  <si>
+    <t>mi_03b5(START-4)</t>
+  </si>
+  <si>
+    <t>vat;sib</t>
+  </si>
+  <si>
+    <t>vat_11;sib_11</t>
+  </si>
+  <si>
+    <t>ang_01b(START-4)</t>
+  </si>
+  <si>
+    <t>inc_mi_s0</t>
+  </si>
+  <si>
+    <t>inc_stroke_s0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">herz_01 </t>
+  </si>
+  <si>
+    <t>krebs_01</t>
+  </si>
+  <si>
     <t xml:space="preserve">case_when (
 vat_3== 1 | vat_4 == 1|sib_3==1|sib_4==1 ~ 1L,
 vat_3== 2 | vat_4 == 2|sib_3==2|sib_4==2 ~ 2L,    vat_3== 8 | vat_4 == 8|sib_3==8|sib_4==8 ~ 3L, vat_3== 1 &amp; vat_4 == 2 &amp;sib_3 ==8&amp;sib_4==9~ 1L,
-vat_3== 2 | vat_4 == 2| &amp;sib_3 ==8 &amp; sib_4==9  ~ 1L,  TRUE ~ NA_integer_
+vat_3== 2 | vat_4 == 2 &amp;sib_3 ==8 &amp; sib_4==9  ~ 1L,  TRUE ~ NA_integer_
 ) 
  </t>
   </si>
   <si>
-    <t>mi_01; ang_01(START-4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">case_when(                                                                                                                        mi_01 %in% 1 | ang_01(START-4) %in% 1 ~ 1,                                                                                    mi_01 %in% 0 &amp; ang_01(START-4) %in% 0 ~ 0,                                                                    TRUE ~ NA_real_ )  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  # At least one "Yes" # Both "No" # All other cases (e.g., 998, 999)</t>
-  </si>
-  <si>
-    <t>mi_03b5(START-4)</t>
-  </si>
-  <si>
-    <t>vat;sib</t>
-  </si>
-  <si>
-    <t>vat_11;sib_11</t>
-  </si>
-  <si>
-    <t>ang_01b(START-4)</t>
-  </si>
-  <si>
-    <t>inc_mi_s0</t>
-  </si>
-  <si>
-    <t>inc_stroke_s0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">herz_01 </t>
-  </si>
-  <si>
-    <t>krebs_01</t>
+    <t>mi_01; ang_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case_when(                                                                                                                        mi_01 %in% 1 | ang_01 %in% 1 ~ 1,                                                                                    mi_01 %in% 0 &amp; ang_01 %in% 0 ~ 0,                                                                    TRUE ~ NA_real_ )  </t>
   </si>
 </sst>
 </file>
@@ -777,867 +776,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$19:$K$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A81-426F-9AE0-0F3539F36D42}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1373338096"/>
-        <c:axId val="1503603312"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1373338096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1503603312"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1503603312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1373338096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2D56A5B5-6E63-4131-91A2-37AE6372872B}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9286875" cy="6097701"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E9EE44-C285-4281-9157-557E836954E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1963,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C39" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2611,7 +1749,7 @@
         <v>175</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>178</v>
@@ -2634,7 +1772,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>175</v>
@@ -2663,7 +1801,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>175</v>
@@ -2923,16 +2061,16 @@
         <v>13</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>175</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J36" s="10" t="s">
         <v>136</v>
@@ -2952,7 +2090,7 @@
         <v>18</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>139</v>
@@ -3001,7 +2139,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>139</v>
@@ -3028,7 +2166,7 @@
         <v>13</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>139</v>
@@ -3078,7 +2216,7 @@
         <v>13</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>139</v>
@@ -3290,7 +2428,7 @@
         <v>13</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>139</v>
@@ -3393,7 +2531,7 @@
         <v>13</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>139</v>

--- a/analyst/Tracy/rmonize/data_proc_elem/DPE_SHIP_TRACY.xlsx
+++ b/analyst/Tracy/rmonize/data_proc_elem/DPE_SHIP_TRACY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\use-cases-harmonisation\analyst\Tracy\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E98AE6B-54E8-4227-AE5C-1366BFDA79E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFB6599-7153-4930-9851-66C960AE3CAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="202">
   <si>
     <t>index</t>
   </si>
@@ -457,18 +457,9 @@
     <t>smoking_s0</t>
   </si>
   <si>
-    <t>erwerb</t>
-  </si>
-  <si>
-    <t>This variable is not applicable, as the study targets specifically West Pomerania, so all participants can be assumed to be German.</t>
-  </si>
-  <si>
     <t>packyrs_s0</t>
   </si>
   <si>
-    <t>ncig1</t>
-  </si>
-  <si>
     <t>compatible</t>
   </si>
   <si>
@@ -527,9 +518,6 @@
   </si>
   <si>
     <t>mort_ca</t>
-  </si>
-  <si>
-    <t>recode(1=5; 2=1; 3=2; 4=2; 5=6; 6=1;7=7;8=7;9=7;)</t>
   </si>
   <si>
     <t>__BLANK__</t>
@@ -596,16 +584,10 @@
     <t xml:space="preserve">  # At least one "Yes" # Both "No" # All other cases (e.g., 998, 999)</t>
   </si>
   <si>
-    <t>mi_03b5(START-4)</t>
-  </si>
-  <si>
     <t>vat;sib</t>
   </si>
   <si>
     <t>vat_11;sib_11</t>
-  </si>
-  <si>
-    <t>ang_01b(START-4)</t>
   </si>
   <si>
     <t>inc_mi_s0</t>
@@ -633,12 +615,88 @@
   <si>
     <t xml:space="preserve">case_when(                                                                                                                        mi_01 %in% 1 | ang_01 %in% 1 ~ 1,                                                                                    mi_01 %in% 0 &amp; ang_01 %in% 0 ~ 0,                                                                    TRUE ~ NA_real_ )  </t>
   </si>
+  <si>
+    <t>ang_01b_4</t>
+  </si>
+  <si>
+    <t>mi_03b5_4</t>
+  </si>
+  <si>
+    <t>recode(0=0; 1=1; 2=3;)</t>
+  </si>
+  <si>
+    <t>erwerb;nojob</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>ncig1*1+ncigard*5+npipes*5</t>
+  </si>
+  <si>
+    <t>ncig1;ncigard;npipes</t>
+  </si>
+  <si>
+    <t>case_when(
+erwerb == 2 ~ 1,
+  erwerb %in% c(3, 4, 5, 6) ~ 2,
+  erwerb == 1 &amp; nojob == 7 ~ 3,
+  erwerb == 1 &amp; nojob == 1 ~ 4,
+  erwerb == 1 &amp; nojob %in% c(4, 5, 6) ~ 5,
+  erwerb == 1 &amp; nojob %in% c(2, 3) ~ 6,
+  erwerb %in% c(7, 8, 9) | (erwerb == 1 &amp; nojob %in% c(8, 9)) ~ 7,
+  TRUE ~ NA_real_
+)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If someone reports working full time, then level =1, If someone reports working </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>part-time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hourly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, then level=2,                                                                                                                               If someone is not working and says they are a housewife or househusband,then level=3,                                                                                                                                                                                                                    If someone is not working and says they are retired, then level=4,                                                                                                                                       If someone is not working and says they are unemployed, in retraining, or on short-time work, level=5 If someone is not working and says they are a student or professional student, then level=6,Other; On leave like maternity o/Gave no answer or said "don't know"/ said their reason for not working is something like civil service, then level=7</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,6 +736,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -691,6 +750,19 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -713,7 +785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -744,9 +816,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -759,6 +828,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1101,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,16 +1329,16 @@
         <v>141</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>136</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1300,19 +1378,19 @@
         <v>144</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>136</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -1323,20 +1401,22 @@
         <v>13</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="I8" s="5"/>
+        <v>171</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>201</v>
+      </c>
       <c r="J8" s="5" t="s">
         <v>136</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1350,25 +1430,23 @@
         <v>13</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="H9" s="14">
-        <v>1</v>
-      </c>
-      <c r="I9" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>29</v>
       </c>
@@ -1384,7 +1462,7 @@
       <c r="H10" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="5" t="s">
         <v>142</v>
       </c>
@@ -1392,7 +1470,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>31</v>
       </c>
@@ -1403,7 +1481,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>139</v>
@@ -1411,7 +1489,7 @@
       <c r="H11" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="5" t="s">
         <v>136</v>
       </c>
@@ -1419,7 +1497,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -1430,20 +1508,20 @@
         <v>18</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="I12" s="5"/>
+        <v>198</v>
+      </c>
+      <c r="I12" s="18"/>
       <c r="J12" s="5" t="s">
         <v>136</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1457,19 +1535,20 @@
         <v>18</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>183</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="I13"/>
       <c r="J13" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -1486,7 +1565,7 @@
       <c r="H14" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="5" t="s">
         <v>142</v>
       </c>
@@ -1505,19 +1584,19 @@
         <v>13</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>136</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1531,19 +1610,19 @@
         <v>13</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>136</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -1557,7 +1636,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>139</v>
@@ -1584,7 +1663,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>139</v>
@@ -1593,7 +1672,7 @@
         <v>139</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>137</v>
@@ -1633,7 +1712,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>139</v>
@@ -1660,7 +1739,7 @@
         <v>13</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>139</v>
@@ -1687,22 +1766,22 @@
         <v>13</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>186</v>
+        <v>181</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>136</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -1716,7 +1795,7 @@
         <v>13</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>139</v>
@@ -1743,22 +1822,22 @@
         <v>13</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="J24" s="5" t="s">
         <v>136</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="120" x14ac:dyDescent="0.25">
@@ -1772,22 +1851,22 @@
         <v>13</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>136</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="135" x14ac:dyDescent="0.25">
@@ -1801,22 +1880,22 @@
         <v>13</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G26" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>179</v>
-      </c>
       <c r="I26" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>136</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -1841,7 +1920,7 @@
         <v>142</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -1855,7 +1934,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>139</v>
@@ -1893,7 +1972,7 @@
         <v>142</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -1918,7 +1997,7 @@
         <v>142</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -1943,7 +2022,7 @@
         <v>142</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -1968,7 +2047,7 @@
         <v>142</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
@@ -1993,7 +2072,7 @@
         <v>142</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
@@ -2007,7 +2086,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>139</v>
@@ -2034,7 +2113,7 @@
         <v>13</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>139</v>
@@ -2061,22 +2140,22 @@
         <v>13</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>187</v>
+        <v>171</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="J36" s="10" t="s">
         <v>136</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2089,8 +2168,8 @@
       <c r="D37" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>188</v>
+      <c r="F37" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>139</v>
@@ -2116,16 +2195,16 @@
         <v>13</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
@@ -2138,8 +2217,8 @@
       <c r="D39" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>191</v>
+      <c r="F39" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>139</v>
@@ -2166,7 +2245,7 @@
         <v>13</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>139</v>
@@ -2193,16 +2272,16 @@
         <v>18</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -2216,7 +2295,7 @@
         <v>13</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>139</v>
@@ -2244,16 +2323,16 @@
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
@@ -2274,13 +2353,13 @@
         <v>142</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>142</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2300,13 +2379,13 @@
         <v>142</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>142</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
@@ -2327,13 +2406,13 @@
         <v>142</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>142</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
@@ -2354,13 +2433,13 @@
         <v>142</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>142</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
@@ -2381,13 +2460,13 @@
         <v>142</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>142</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
@@ -2408,13 +2487,13 @@
         <v>142</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>142</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
@@ -2428,7 +2507,7 @@
         <v>13</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>139</v>
@@ -2461,13 +2540,13 @@
         <v>142</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>142</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
@@ -2481,7 +2560,7 @@
         <v>13</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>139</v>
@@ -2508,16 +2587,16 @@
         <v>18</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
@@ -2531,7 +2610,7 @@
         <v>13</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>139</v>
@@ -2557,18 +2636,18 @@
       <c r="D55" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F55" s="18"/>
+      <c r="F55" s="17"/>
       <c r="G55" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2581,18 +2660,18 @@
       <c r="D56" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F56" s="18"/>
+      <c r="F56" s="17"/>
       <c r="G56" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2606,7 +2685,7 @@
         <v>13</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>139</v>
@@ -2632,7 +2711,7 @@
         <v>18</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>139</v>
@@ -2658,7 +2737,7 @@
         <v>13</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>139</v>
@@ -2685,7 +2764,7 @@
         <v>13</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>139</v>
@@ -2712,20 +2791,20 @@
         <v>18</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/analyst/Tracy/rmonize/data_proc_elem/DPE_SHIP_TRACY.xlsx
+++ b/analyst/Tracy/rmonize/data_proc_elem/DPE_SHIP_TRACY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\use-cases-harmonisation\analyst\Tracy\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFB6599-7153-4930-9851-66C960AE3CAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981757C9-C411-4E67-A860-9320E0605D5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="202">
   <si>
     <t>index</t>
   </si>
@@ -561,9 +561,6 @@
   </si>
   <si>
     <t xml:space="preserve">If all the family members have either cancer (parents) and cancer (siblings), then classify as 1L                                                                                                                                                                                                                                                                          If all the family members do not have cancer (parents) and cancer (siblings), then classify as 2L                                                                                                                                                                                                                                                               If all the family members do not know they have cancer (parents) and cancer (siblings),, then classify as 8L                                                                                                                                                                                                                                          If at least one of the family has diabetes (parents) and diabetes (siblings), then the classify as 1L.                                                                                                                                                                                                                                                                                              If all family members do not know and at least one level is no then classify as 2L . If at least one of the family members  has "no" and then rest do not know then classify as 2L </t>
-  </si>
-  <si>
-    <t>recode(0=0; 1=1; 2=2; 3=4; 4=7; 5=9;)</t>
   </si>
   <si>
     <t>recode(0=1; 1=2; 2=3;)</t>
@@ -690,6 +687,9 @@
       </rPr>
       <t>, then level=2,                                                                                                                               If someone is not working and says they are a housewife or househusband,then level=3,                                                                                                                                                                                                                    If someone is not working and says they are retired, then level=4,                                                                                                                                       If someone is not working and says they are unemployed, in retraining, or on short-time work, level=5 If someone is not working and says they are a student or professional student, then level=6,Other; On leave like maternity o/Gave no answer or said "don't know"/ said their reason for not working is something like civil service, then level=7</t>
     </r>
+  </si>
+  <si>
+    <t>sportwi1;sportwi3;sportso1;sportso3</t>
   </si>
 </sst>
 </file>
@@ -1179,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,7 +1189,7 @@
     <col min="3" max="3" width="59.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="42.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="126.28515625" bestFit="1" customWidth="1"/>
@@ -1329,39 +1329,42 @@
         <v>141</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>143</v>
+      <c r="F6" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1381,7 +1384,7 @@
         <v>153</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>136</v>
@@ -1401,16 +1404,16 @@
         <v>13</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>171</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I8" s="20" t="s">
         <v>200</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>201</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>136</v>
@@ -1508,13 +1511,13 @@
         <v>18</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="5" t="s">
@@ -1535,17 +1538,17 @@
         <v>18</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I13"/>
       <c r="J13" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1590,7 +1593,7 @@
         <v>153</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>136</v>
@@ -1766,16 +1769,16 @@
         <v>13</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>171</v>
       </c>
       <c r="H22" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="I22" s="15" t="s">
         <v>181</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>182</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>136</v>
@@ -1828,7 +1831,7 @@
         <v>171</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>174</v>
@@ -1851,7 +1854,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>171</v>
@@ -1880,7 +1883,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>171</v>
@@ -2140,16 +2143,16 @@
         <v>13</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>171</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J36" s="10" t="s">
         <v>136</v>
@@ -2169,7 +2172,7 @@
         <v>18</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>139</v>
@@ -2195,16 +2198,16 @@
         <v>13</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
@@ -2218,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>139</v>
@@ -2245,7 +2248,7 @@
         <v>13</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>139</v>
@@ -2272,16 +2275,16 @@
         <v>18</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -2295,7 +2298,7 @@
         <v>13</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>139</v>
@@ -2323,16 +2326,16 @@
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
@@ -2507,7 +2510,7 @@
         <v>13</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>139</v>
@@ -2587,16 +2590,16 @@
         <v>18</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
@@ -2610,7 +2613,7 @@
         <v>13</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>139</v>
@@ -2638,16 +2641,16 @@
       </c>
       <c r="F55" s="17"/>
       <c r="G55" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2662,16 +2665,16 @@
       </c>
       <c r="F56" s="17"/>
       <c r="G56" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2794,17 +2797,17 @@
         <v>163</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/analyst/Tracy/rmonize/data_proc_elem/DPE_SHIP_TRACY.xlsx
+++ b/analyst/Tracy/rmonize/data_proc_elem/DPE_SHIP_TRACY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\use-cases-harmonisation\analyst\Tracy\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981757C9-C411-4E67-A860-9320E0605D5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA854478-31FB-4B44-AB62-A5EE632F552F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="204">
   <si>
     <t>index</t>
   </si>
@@ -443,9 +443,6 @@
   </si>
   <si>
     <t>AGE</t>
-  </si>
-  <si>
-    <t>edlevel_s0</t>
   </si>
   <si>
     <t>impossible</t>
@@ -611,12 +608,6 @@
   </si>
   <si>
     <t xml:space="preserve">case_when(                                                                                                                        mi_01 %in% 1 | ang_01 %in% 1 ~ 1,                                                                                    mi_01 %in% 0 &amp; ang_01 %in% 0 ~ 0,                                                                    TRUE ~ NA_real_ )  </t>
-  </si>
-  <si>
-    <t>ang_01b_4</t>
-  </si>
-  <si>
-    <t>mi_03b5_4</t>
   </si>
   <si>
     <t>recode(0=0; 1=1; 2=3;)</t>
@@ -690,6 +681,21 @@
   </si>
   <si>
     <t>sportwi1;sportwi3;sportso1;sportso3</t>
+  </si>
+  <si>
+    <t>ang_01b</t>
+  </si>
+  <si>
+    <t>mi_03b5</t>
+  </si>
+  <si>
+    <t>proximate</t>
+  </si>
+  <si>
+    <t>case_when(                                                                               ausbild7 %in% c(1) ~ 7L,                                                        ausbild6 %in% c(1) ~ 6L,                                       ausbild5 %in% c(1) | ausbild4 %in% c(1) ~ 4L,                            Schule1 %in% c(7,8) ~ 3L,                                              Schule1 %in% c(3,4,5,6) ~ 2L,                               Schule1 %in% c(2) ~ 0L,                                                  ausbild8 %in% c(1) | ausbild %in% c(1) | Schule1 %in% c(1,9) ~ 9L,                                                                       TRUE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>ausbild7 ;ausbild6 ; ausbild5;Schule1; ausbild8;ausbild; ausbild4</t>
   </si>
 </sst>
 </file>
@@ -785,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -837,6 +843,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1179,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,7 +1324,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
@@ -1325,20 +1334,20 @@
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>178</v>
+      <c r="F5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>202</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1352,19 +1361,19 @@
         <v>18</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1378,19 +1387,19 @@
         <v>13</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>136</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -1404,22 +1413,22 @@
         <v>13</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>136</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1433,10 +1442,10 @@
         <v>13</v>
       </c>
       <c r="F9" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>167</v>
       </c>
       <c r="H9" s="13">
         <v>0</v>
@@ -1446,7 +1455,7 @@
         <v>136</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1460,17 +1469,17 @@
         <v>18</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1484,7 +1493,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>139</v>
@@ -1511,20 +1520,20 @@
         <v>18</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="5" t="s">
         <v>136</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1538,17 +1547,17 @@
         <v>18</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I13"/>
       <c r="J13" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1563,17 +1572,17 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1587,19 +1596,19 @@
         <v>13</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>136</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1613,19 +1622,19 @@
         <v>13</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>136</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -1639,7 +1648,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>139</v>
@@ -1666,7 +1675,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>139</v>
@@ -1675,7 +1684,7 @@
         <v>139</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>137</v>
@@ -1692,16 +1701,16 @@
         <v>18</v>
       </c>
       <c r="G19" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -1715,7 +1724,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>139</v>
@@ -1742,7 +1751,7 @@
         <v>13</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>139</v>
@@ -1769,22 +1778,22 @@
         <v>13</v>
       </c>
       <c r="F22" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="H22" s="11" t="s">
+      <c r="I22" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="I22" s="15" t="s">
-        <v>181</v>
-      </c>
       <c r="J22" s="10" t="s">
         <v>136</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -1798,7 +1807,7 @@
         <v>13</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>139</v>
@@ -1825,22 +1834,22 @@
         <v>13</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="H24" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>136</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="120" x14ac:dyDescent="0.25">
@@ -1854,22 +1863,22 @@
         <v>13</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G25" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="I25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="J25" s="5" t="s">
         <v>136</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="135" x14ac:dyDescent="0.25">
@@ -1883,22 +1892,22 @@
         <v>13</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H26" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="J26" s="5" t="s">
         <v>136</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -1913,17 +1922,17 @@
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -1937,7 +1946,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>139</v>
@@ -1965,17 +1974,17 @@
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -1990,17 +1999,17 @@
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -2015,17 +2024,17 @@
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -2040,17 +2049,17 @@
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
@@ -2065,17 +2074,17 @@
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
@@ -2089,7 +2098,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>139</v>
@@ -2116,7 +2125,7 @@
         <v>13</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>139</v>
@@ -2143,22 +2152,22 @@
         <v>13</v>
       </c>
       <c r="F36" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="G36" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>191</v>
-      </c>
       <c r="I36" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J36" s="10" t="s">
         <v>136</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="2:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2172,7 +2181,7 @@
         <v>18</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>139</v>
@@ -2198,16 +2207,16 @@
         <v>13</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
@@ -2221,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>139</v>
@@ -2248,7 +2257,7 @@
         <v>13</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>139</v>
@@ -2275,16 +2284,16 @@
         <v>18</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -2298,7 +2307,7 @@
         <v>13</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>139</v>
@@ -2326,16 +2335,16 @@
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
@@ -2350,19 +2359,19 @@
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2376,19 +2385,19 @@
         <v>18</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
@@ -2403,19 +2412,19 @@
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
@@ -2430,19 +2439,19 @@
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
@@ -2457,19 +2466,19 @@
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
@@ -2484,19 +2493,19 @@
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
@@ -2510,7 +2519,7 @@
         <v>13</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>139</v>
@@ -2537,19 +2546,19 @@
         <v>18</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
@@ -2563,7 +2572,7 @@
         <v>13</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>139</v>
@@ -2590,16 +2599,16 @@
         <v>18</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
@@ -2613,7 +2622,7 @@
         <v>13</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>139</v>
@@ -2641,16 +2650,16 @@
       </c>
       <c r="F55" s="17"/>
       <c r="G55" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2665,16 +2674,16 @@
       </c>
       <c r="F56" s="17"/>
       <c r="G56" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2688,7 +2697,7 @@
         <v>13</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>139</v>
@@ -2714,7 +2723,7 @@
         <v>18</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>139</v>
@@ -2740,7 +2749,7 @@
         <v>13</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>139</v>
@@ -2767,7 +2776,7 @@
         <v>13</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>139</v>
@@ -2794,20 +2803,20 @@
         <v>18</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/analyst/Tracy/rmonize/data_proc_elem/DPE_SHIP_TRACY.xlsx
+++ b/analyst/Tracy/rmonize/data_proc_elem/DPE_SHIP_TRACY.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\use-cases-harmonisation\analyst\Tracy\rmonize\data_proc_elem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\analyst\Tracy\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA854478-31FB-4B44-AB62-A5EE632F552F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0F7674-2DF9-4B41-907A-C5AAA7850733}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,9 +529,6 @@
     <t>partial</t>
   </si>
   <si>
-    <t>vat_3;vat_4; sib_3; sib_4</t>
-  </si>
-  <si>
     <t>case_when</t>
   </si>
   <si>
@@ -566,9 +563,6 @@
     <t>undetermined</t>
   </si>
   <si>
-    <t>mi; apoplex; herzop</t>
-  </si>
-  <si>
     <t>case_when(                                                                                                                 any(c_across(c(mi, apoplex, herzop)) == 1) ~ 1,  all(c_across(c(mi, apoplex, herzop)) == 2) ~ 2, all(c_across(c(mi, apoplex, herzop)) %in% c(8, 9)) ~ 3, all(c_across(c(mi, apoplex, herzop)) %in% c(2, 8, 9)) &amp; any(c_across(c(mi, apoplex, herzop)) == 2) ~ 2,                                                       TRUE ~ NA_real_ )</t>
   </si>
   <si>
@@ -602,9 +596,6 @@
 vat_3== 2 | vat_4 == 2 &amp;sib_3 ==8 &amp; sib_4==9  ~ 1L,  TRUE ~ NA_integer_
 ) 
  </t>
-  </si>
-  <si>
-    <t>mi_01; ang_01</t>
   </si>
   <si>
     <t xml:space="preserve">case_when(                                                                                                                        mi_01 %in% 1 | ang_01 %in% 1 ~ 1,                                                                                    mi_01 %in% 0 &amp; ang_01 %in% 0 ~ 0,                                                                    TRUE ~ NA_real_ )  </t>
@@ -695,7 +686,16 @@
     <t>case_when(                                                                               ausbild7 %in% c(1) ~ 7L,                                                        ausbild6 %in% c(1) ~ 6L,                                       ausbild5 %in% c(1) | ausbild4 %in% c(1) ~ 4L,                            Schule1 %in% c(7,8) ~ 3L,                                              Schule1 %in% c(3,4,5,6) ~ 2L,                               Schule1 %in% c(2) ~ 0L,                                                  ausbild8 %in% c(1) | ausbild %in% c(1) | Schule1 %in% c(1,9) ~ 9L,                                                                       TRUE ~ NA_integer_)</t>
   </si>
   <si>
-    <t>ausbild7 ;ausbild6 ; ausbild5;Schule1; ausbild8;ausbild; ausbild4</t>
+    <t>ausbild7;ausbild6;ausbild5;Schule1;ausbild8;ausbild;ausbild4</t>
+  </si>
+  <si>
+    <t>vat_3;vat_4;sib_3;sib_4</t>
+  </si>
+  <si>
+    <t>mi;apoplex;herzop</t>
+  </si>
+  <si>
+    <t>mi_01;ang_01</t>
   </si>
 </sst>
 </file>
@@ -791,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -848,9 +848,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -866,7 +867,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1188,11 +1189,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.140625" bestFit="1" customWidth="1"/>
@@ -1334,20 +1335,20 @@
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>203</v>
+      <c r="F5" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>168</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1361,19 +1362,19 @@
         <v>18</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1393,7 +1394,7 @@
         <v>152</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>136</v>
@@ -1413,16 +1414,16 @@
         <v>13</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>136</v>
@@ -1520,13 +1521,13 @@
         <v>18</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="5" t="s">
@@ -1547,17 +1548,17 @@
         <v>18</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I13"/>
       <c r="J13" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1602,7 +1603,7 @@
         <v>152</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>136</v>
@@ -1778,16 +1779,16 @@
         <v>13</v>
       </c>
       <c r="F22" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="I22" s="15" t="s">
         <v>178</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>180</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>136</v>
@@ -1834,16 +1835,16 @@
         <v>13</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="H24" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>136</v>
@@ -1863,16 +1864,16 @@
         <v>13</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G25" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="I25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>136</v>
@@ -1892,16 +1893,16 @@
         <v>13</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H26" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>136</v>
@@ -2152,16 +2153,16 @@
         <v>13</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J36" s="10" t="s">
         <v>136</v>
@@ -2181,7 +2182,7 @@
         <v>18</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>139</v>
@@ -2207,16 +2208,16 @@
         <v>13</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
@@ -2230,7 +2231,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>139</v>
@@ -2257,7 +2258,7 @@
         <v>13</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>139</v>
@@ -2284,16 +2285,16 @@
         <v>18</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -2307,7 +2308,7 @@
         <v>13</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>139</v>
@@ -2335,16 +2336,16 @@
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
@@ -2519,7 +2520,7 @@
         <v>13</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>139</v>
@@ -2599,16 +2600,16 @@
         <v>18</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
@@ -2622,7 +2623,7 @@
         <v>13</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>139</v>
@@ -2650,16 +2651,16 @@
       </c>
       <c r="F55" s="17"/>
       <c r="G55" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2674,16 +2675,16 @@
       </c>
       <c r="F56" s="17"/>
       <c r="G56" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2806,17 +2807,17 @@
         <v>162</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
